--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -1616,7 +1616,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -1339,9 +1339,21 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>w/ Qiana</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1472,11 +1484,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
@@ -1533,7 +1541,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1596,7 +1604,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>PICK #386 +RX, WALES</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1659,7 +1667,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>405 N WALES ROAD</t>
+          <t>PICK #386 +RX, WALES</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1722,7 +1730,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
+          <t>405 N WALES ROAD</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1790,7 +1798,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1847,7 +1855,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1903,7 +1911,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1948,7 +1956,11 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -1990,21 +2002,9 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Driver, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2043,15 +2043,19 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Driver, Optima, Equip</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -2090,19 +2094,15 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2141,15 +2141,19 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2184,20 +2188,15 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -2228,15 +2227,20 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2288,21 +2292,15 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla,
-Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2366,15 +2364,21 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla,
+Rx</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2421,12 +2425,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2481,20 +2485,15 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2549,18 +2548,18 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2613,17 +2612,18 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2669,17 +2669,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2724,12 +2724,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2783,12 +2783,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2842,17 +2842,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2887,9 +2887,21 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2963,11 +2975,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3004,7 +3012,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3051,7 +3059,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>KELLEY #52, JEFFERSON ST MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3106,7 +3114,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>515 E JEFFERSON ST</t>
+          <t>KELLEY #15, FREEPORT WEST</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3161,7 +3169,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HwMixMJfHf32</t>
+          <t>1111 S WEST ST</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3198,7 +3206,11 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
@@ -3244,21 +3256,9 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3297,15 +3297,19 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3344,12 +3348,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3391,12 +3395,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3438,12 +3442,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3485,12 +3489,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3530,16 +3534,8 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3623,14 +3623,10 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3662,10 +3658,15 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3697,15 +3698,10 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3737,47 +3733,12 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -1044,7 +1044,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ron</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1982,16 +1982,8 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Ron</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3267,7 +3267,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>9:00 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3365,7 +3365,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
+          <t>DELAFIELD LIQUOR (WAUKESHA)</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3412,7 +3412,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>10 S STEPHENSON</t>
+          <t>518 DELAFIELD ST</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3459,7 +3459,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
+          <t>https://maps.app.goo.gl/BeLYjvZy7LYyBCjj8</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3506,7 +3506,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>*IL Meet is ?? am at IL Office</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3574,16 +3574,8 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3613,11 +3605,7 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3643,22 +3631,9 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3683,16 +3658,8 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -3718,19 +3685,381 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>10 S STEPHENSON</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3267,7 +3267,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>9:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3318,7 +3318,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3365,7 +3365,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>DELAFIELD LIQUOR (WAUKESHA)</t>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3412,7 +3412,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>518 DELAFIELD ST</t>
+          <t>10 S STEPHENSON</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3459,7 +3459,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/BeLYjvZy7LYyBCjj8</t>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3506,7 +3506,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>*IL Meet is ?? am at IL Office</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3574,8 +3574,16 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3605,7 +3613,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3631,9 +3643,22 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3658,8 +3683,16 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -3685,381 +3718,19 @@
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
-        </is>
-      </c>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>10 S STEPHENSON</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -2590,16 +2590,8 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2711,7 +2703,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -2768,7 +2764,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2827,7 +2823,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2874,7 +2870,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2922,7 +2918,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2959,11 +2955,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2997,9 +2989,21 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3034,19 +3038,15 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3093,12 +3093,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3148,12 +3148,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3187,12 +3187,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3236,16 +3236,8 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +1687,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1755,7 +1755,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1108, LOMIRA</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1824,7 +1824,7 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>375 EAST AVENUE, SUITE 1</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1880,7 +1880,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HZvTzhm2zfv</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1921,11 +1921,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>APPROX 8:30/9:30 AM START</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1968,11 +1964,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2006,13 +1998,21 @@
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2057,13 +2057,21 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2105,11 +2113,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2199,7 +2203,11 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2238,21 +2246,13 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2310,21 +2310,14 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>WEST BEND BP - 
+E WASHINGTON</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2389,7 +2382,11 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2825 E WASHINGTON ST</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2444,7 +2441,11 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2506,7 +2507,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2630,8 +2631,8 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>WEST BEND BP - 
-E WASHINGTON</t>
+          <t xml:space="preserve">WEST BEND MOBIL - 
+W WASHINGTON </t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2686,7 +2687,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>2825 E WASHINGTON ST</t>
+          <t>2333 W WASHINGTON ST</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2745,7 +2746,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
+          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2802,11 +2803,7 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2848,13 +2845,21 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2895,14 +2900,21 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEST BEND MOBIL - 
-W WASHINGTON </t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2936,11 +2948,7 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>2333 W WASHINGTON ST</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -2971,11 +2979,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3022,7 +3026,11 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3064,21 +3072,13 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>MODAS</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3119,21 +3119,13 @@
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3171,7 +3163,11 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>10 S STEPHENSON</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3222,7 +3218,11 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3241,7 +3241,11 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:45 am at IL Office</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3259,7 +3263,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3279,21 +3283,9 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3308,11 +3300,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3332,15 +3320,20 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3354,13 +3347,21 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3379,15 +3380,19 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3401,10 +3406,14 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>10 S STEPHENSON</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3426,15 +3435,20 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3448,13 +3462,22 @@
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3473,12 +3496,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3495,10 +3518,14 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3518,9 +3545,21 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
@@ -3534,195 +3573,19 @@
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -1211,7 +1211,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10:30</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -1339,21 +1339,9 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>w/ Qiana</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1484,7 +1472,11 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
@@ -1541,7 +1533,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1604,7 +1596,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #386 +RX, WALES</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1667,7 +1659,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>PICK #386 +RX, WALES</t>
+          <t>405 N WALES ROAD</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1730,7 +1722,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>405 N WALES ROAD</t>
+          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1798,7 +1790,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xJzSH7YKuiD2</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1855,7 +1847,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1911,7 +1903,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1952,11 +1944,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>STORE RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -1986,9 +1974,21 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Driver, Optima, Equip</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -2035,19 +2035,15 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Driver, Optima, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -2094,15 +2090,19 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2137,19 +2137,15 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2184,15 +2180,20 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -2227,20 +2228,15 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2284,15 +2280,21 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla,
+Rx</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -2349,21 +2351,15 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla,
-Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2414,12 +2410,12 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2478,15 +2474,20 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2541,18 +2542,18 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2597,18 +2598,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -2654,17 +2654,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2713,12 +2713,12 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2772,12 +2772,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -2827,17 +2827,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2880,21 +2880,9 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
@@ -2967,7 +2955,11 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3012,7 +3004,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3059,7 +3051,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #15, FREEPORT WEST</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3106,7 +3098,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>KELLEY #15, FREEPORT WEST</t>
+          <t>1111 S WEST ST</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3153,7 +3145,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1111 S WEST ST</t>
+          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3196,7 +3188,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6CTSzF2tjnT2</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3241,11 +3233,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3283,9 +3271,22 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3320,18 +3321,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>@ Store,
-Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
@@ -3380,17 +3380,18 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
@@ -3435,20 +3436,15 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3496,15 +3492,19 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3545,21 +3545,9 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -2893,16 +2893,8 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>

--- a/02-02-25 to 02-08-25 Madison Schedule.xlsx
+++ b/02-02-25 to 02-08-25 Madison Schedule.xlsx
@@ -2206,7 +2206,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2245,7 +2245,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2315,8 +2315,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>WEST BEND BP - 
-E WASHINGTON</t>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2380,7 +2379,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>2825 E WASHINGTON ST</t>
+          <t>10 S STEPHENSON</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2439,7 +2438,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/sJ7713JXpChSCzWL7</t>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2508,7 +2507,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2574,11 +2573,7 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2628,14 +2623,21 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEST BEND MOBIL - 
-W WASHINGTON </t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2684,10 +2686,14 @@
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>2333 W WASHINGTON ST</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2743,13 +2749,22 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/zLH23SGbN7oN6MhA6</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -2802,8 +2817,16 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2847,19 +2870,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2888,11 +2907,7 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
@@ -3010,11 +3025,7 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3057,11 +3068,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3104,11 +3111,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3147,11 +3150,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>10 S STEPHENSON</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3202,11 +3201,7 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3241,11 +3236,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3339,21 +3330,9 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3399,16 +3378,8 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3450,22 +3421,9 @@
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3510,16 +3468,8 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -3553,16 +3503,8 @@
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
